--- a/database/orang/aulia/exel_boomber_aulia/F2 Aulia Database Notel [Kenal Nama].xlsx
+++ b/database/orang/aulia/exel_boomber_aulia/F2 Aulia Database Notel [Kenal Nama].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\aulia\exel_boomber_aulia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130679DC-6DA9-456A-A51E-726B4E6E989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127285D-8CD5-4D68-B09C-7BEC54D8744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1020">
   <si>
     <t>Keterangan</t>
   </si>
@@ -2970,6 +2970,129 @@
   </si>
   <si>
     <t>+62 853-2755-8375</t>
+  </si>
+  <si>
+    <t>Kak denil</t>
+  </si>
+  <si>
+    <t>+62 821-2273-0984</t>
+  </si>
+  <si>
+    <t>Kak rezki</t>
+  </si>
+  <si>
+    <t>+62 821-2273-1209</t>
+  </si>
+  <si>
+    <t>Kak nana</t>
+  </si>
+  <si>
+    <t>+62 821-2273-0401</t>
+  </si>
+  <si>
+    <t>+62 821-2272-9998</t>
+  </si>
+  <si>
+    <t>Bapak abi rub'i</t>
+  </si>
+  <si>
+    <t>+62 821-2272-9999</t>
+  </si>
+  <si>
+    <t>Kak deni</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5309</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5238</t>
+  </si>
+  <si>
+    <t>Kak indra</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5013</t>
+  </si>
+  <si>
+    <t>Bunda ratie</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5076</t>
+  </si>
+  <si>
+    <t>Kak aulia hanun</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5158</t>
+  </si>
+  <si>
+    <t>Kak citra</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5307</t>
+  </si>
+  <si>
+    <t>Kak sonia</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5176</t>
+  </si>
+  <si>
+    <t>+62 812-2455-225</t>
+  </si>
+  <si>
+    <t>+62 821-2273-1815</t>
+  </si>
+  <si>
+    <t>Bapak nuril</t>
+  </si>
+  <si>
+    <t>+62 821-2273-2336</t>
+  </si>
+  <si>
+    <t>Bapak gendon</t>
+  </si>
+  <si>
+    <t>+62 821-2273-1636</t>
+  </si>
+  <si>
+    <t>+62 821-2273-1751</t>
+  </si>
+  <si>
+    <t>Bapak suparno</t>
+  </si>
+  <si>
+    <t>+62 821-2273-2343</t>
+  </si>
+  <si>
+    <t>Bapak reno</t>
+  </si>
+  <si>
+    <t>+62 821-2273-1687</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5130</t>
+  </si>
+  <si>
+    <t>+62 821-2273-2628</t>
+  </si>
+  <si>
+    <t>Bapak rabat syihab</t>
+  </si>
+  <si>
+    <t>+62 821-2273-2396</t>
+  </si>
+  <si>
+    <t>Ibu sartiah</t>
+  </si>
+  <si>
+    <t>+62 811-2010-499</t>
+  </si>
+  <si>
+    <t>+62 811-2010-311</t>
+  </si>
+  <si>
+    <t>Ibu fari</t>
   </si>
 </sst>
 </file>
@@ -3387,8 +3510,8 @@
   </sheetPr>
   <dimension ref="A1:G904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E496" sqref="E496"/>
+    <sheetView tabSelected="1" topLeftCell="A575" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C586" sqref="C586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12764,122 +12887,398 @@
       <c r="F565" s="7"/>
     </row>
     <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>634</v>
+      </c>
+      <c r="B566" s="4">
+        <v>44690</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D566" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E566" s="7"/>
       <c r="F566" s="7"/>
       <c r="G566" s="7"/>
     </row>
     <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="3">
+        <v>635</v>
+      </c>
+      <c r="B567" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C567" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D567" s="9" t="s">
+        <v>999</v>
+      </c>
       <c r="E567" s="7"/>
       <c r="F567" s="7"/>
     </row>
     <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>636</v>
+      </c>
+      <c r="B568" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C568" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D568" s="9" t="s">
+        <v>997</v>
+      </c>
       <c r="E568" s="7"/>
       <c r="F568" s="7"/>
       <c r="G568" s="7"/>
     </row>
     <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="3">
+        <v>637</v>
+      </c>
+      <c r="B569" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D569" s="9" t="s">
+        <v>995</v>
+      </c>
       <c r="E569" s="7"/>
       <c r="F569" s="7"/>
     </row>
     <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>638</v>
+      </c>
+      <c r="B570" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="D570" s="9" t="s">
+        <v>993</v>
+      </c>
       <c r="E570" s="7"/>
       <c r="F570" s="7"/>
       <c r="G570" s="7"/>
     </row>
     <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="3">
+        <v>639</v>
+      </c>
+      <c r="B571" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="D571" s="9" t="s">
+        <v>991</v>
+      </c>
       <c r="E571" s="7"/>
       <c r="F571" s="7"/>
     </row>
     <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>640</v>
+      </c>
+      <c r="B572" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="D572" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E572" s="7"/>
       <c r="F572" s="7"/>
       <c r="G572" s="7"/>
     </row>
     <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="3">
+        <v>641</v>
+      </c>
+      <c r="B573" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="D573" s="9" t="s">
+        <v>988</v>
+      </c>
       <c r="E573" s="7"/>
       <c r="F573" s="7"/>
     </row>
     <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>642</v>
+      </c>
+      <c r="B574" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="D574" s="9" t="s">
+        <v>986</v>
+      </c>
       <c r="E574" s="7"/>
       <c r="F574" s="7"/>
       <c r="G574" s="7"/>
     </row>
     <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="3">
+        <v>643</v>
+      </c>
+      <c r="B575" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="D575" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E575" s="7"/>
       <c r="F575" s="7"/>
     </row>
     <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>644</v>
+      </c>
+      <c r="B576" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C576" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="D576" s="9" t="s">
+        <v>983</v>
+      </c>
       <c r="E576" s="7"/>
       <c r="F576" s="7"/>
       <c r="G576" s="7"/>
     </row>
     <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="3">
+        <v>645</v>
+      </c>
+      <c r="B577" s="4">
+        <v>44695</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D577" s="9" t="s">
+        <v>981</v>
+      </c>
       <c r="E577" s="7"/>
       <c r="F577" s="7"/>
     </row>
     <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>646</v>
+      </c>
+      <c r="B578" s="4">
+        <v>44695</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="D578" s="9" t="s">
+        <v>979</v>
+      </c>
       <c r="E578" s="7"/>
       <c r="F578" s="7"/>
       <c r="G578" s="7"/>
     </row>
     <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="3">
+        <v>647</v>
+      </c>
+      <c r="B579" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D579" s="9" t="s">
+        <v>1003</v>
+      </c>
       <c r="E579" s="7"/>
       <c r="F579" s="7"/>
     </row>
     <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>648</v>
+      </c>
+      <c r="B580" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D580" s="9" t="s">
+        <v>1005</v>
+      </c>
       <c r="E580" s="7"/>
       <c r="F580" s="7"/>
       <c r="G580" s="7"/>
     </row>
     <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="3">
+        <v>649</v>
+      </c>
+      <c r="B581" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D581" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="E581" s="7"/>
       <c r="F581" s="7"/>
     </row>
     <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>650</v>
+      </c>
+      <c r="B582" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D582" s="9" t="s">
+        <v>1008</v>
+      </c>
       <c r="E582" s="7"/>
       <c r="F582" s="7"/>
       <c r="G582" s="7"/>
     </row>
     <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="3">
+        <v>651</v>
+      </c>
+      <c r="B583" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D583" s="9" t="s">
+        <v>1010</v>
+      </c>
       <c r="E583" s="7"/>
       <c r="F583" s="7"/>
     </row>
     <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>652</v>
+      </c>
+      <c r="B584" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D584" s="9" t="s">
+        <v>707</v>
+      </c>
       <c r="E584" s="7"/>
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
     </row>
     <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="3">
+        <v>653</v>
+      </c>
+      <c r="B585" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D585" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E585" s="7"/>
       <c r="F585" s="7"/>
     </row>
     <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>654</v>
+      </c>
+      <c r="B586" s="4">
+        <v>44698</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D586" s="9" t="s">
+        <v>1014</v>
+      </c>
       <c r="E586" s="7"/>
       <c r="F586" s="7"/>
       <c r="G586" s="7"/>
     </row>
     <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="3"/>
-      <c r="B587" s="4"/>
-      <c r="C587" s="5"/>
-      <c r="D587" s="11"/>
+      <c r="A587" s="3">
+        <v>655</v>
+      </c>
+      <c r="B587" s="4">
+        <v>44699</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D587" s="11" t="s">
+        <v>1016</v>
+      </c>
       <c r="E587" s="7"/>
       <c r="F587" s="7"/>
     </row>
     <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="3"/>
-      <c r="B588" s="4"/>
-      <c r="C588" s="5"/>
-      <c r="D588" s="6"/>
+      <c r="A588" s="3">
+        <v>656</v>
+      </c>
+      <c r="B588" s="4">
+        <v>44699</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E588" s="7"/>
       <c r="F588" s="7"/>
       <c r="G588" s="7"/>
     </row>
     <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="3"/>
-      <c r="B589" s="4"/>
-      <c r="C589" s="5"/>
-      <c r="D589" s="11"/>
+      <c r="A589" s="3">
+        <v>657</v>
+      </c>
+      <c r="B589" s="4">
+        <v>44699</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D589" s="11" t="s">
+        <v>1019</v>
+      </c>
       <c r="E589" s="7"/>
       <c r="F589" s="7"/>
     </row>
